--- a/addressbook-web-tests/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/groups.xlsx
@@ -26,28 +26,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>_4&lt;</t>
-  </si>
-  <si>
-    <t>G@5(`'4+R&lt;VXU!@ J5K"&amp;/,6W89=#Z98S-_VX=`\5@F5A/9'R8GKJ:T84`2GNY)Y#&gt;%H#K)-6PNGJXVH`2LK3ON9:</t>
-  </si>
-  <si>
-    <t>BY+8.&gt;7N2#)R#'/:5[M-P=)KH&lt;-?G5QM-&gt;(2"_B00]FT?./E&lt;Z:TM.X%OAR</t>
-  </si>
-  <si>
-    <t>1Y'^3=EG</t>
-  </si>
-  <si>
-    <t>^77:&gt;^TX6,:-I"N\]!aG#CB-O`8VJA"JIG?C#:/1$.958FJW:"7&lt;Ea];V*K?F_/W*QE"D+YCSPCV*-V)6B&lt;H*G%IK$NZPQM&amp;aC</t>
-  </si>
-  <si>
-    <t>H"H3/*TKW&gt;'1I5B)#</t>
-  </si>
-  <si>
-    <t>HMDL\</t>
-  </si>
-  <si>
-    <t>@&gt;`T!#=VH".'P0,&gt;7]/,DT%E.IID9XH^&amp;0SR+</t>
+    <t>&lt;I</t>
+  </si>
+  <si>
+    <t>"P&gt;,OT7KE1 ];a-T'G]^a:)WFV\75J3&amp;MQOG&gt;/5K21[UJ6;Z]S;D@M^IFHGZZ 6\_\0J2H7Y21KP@5,0;";C.PF U&amp;!VI&lt;</t>
+  </si>
+  <si>
+    <t>2\`WP%RH5=D2/!.*1&lt;7?XGTN050V,GA0V?9UA@&gt;+J:&amp;&amp;L=7`G]Q:2^\L(2G:V\=O\4=QI:JR_,U&gt;AN</t>
+  </si>
+  <si>
+    <t>_1/0W'^YENM/Z$6O_7+8 G7.3`&lt;&amp;)&gt;+;0T&lt;EM-YU7E,\N;Y\W&amp;@*CLT8["^XLXP'B2`&amp;HQ"R?7!&lt;;;AY</t>
+  </si>
+  <si>
+    <t>B0#_"YE!$KK</t>
+  </si>
+  <si>
+    <t>!)</t>
+  </si>
+  <si>
+    <t>V%:;&lt;S3&amp;$OL-K8^@B$Q*HM)A:;%D'8B&gt;.BG6"&amp;&gt;5.*`07L[J(</t>
+  </si>
+  <si>
+    <t>*+1`Y)^Z! NP`M-.`</t>
   </si>
 </sst>
 </file>
@@ -384,21 +384,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
